--- a/scannedDataExcel.xlsx
+++ b/scannedDataExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>STAMP47647392950073</t>
   </si>
@@ -347,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -362,40 +362,16 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/scannedDataExcel.xlsx
+++ b/scannedDataExcel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>STAMP47647392950073</t>
   </si>
@@ -347,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -365,11 +365,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
